--- a/sf/Assesment_Parameters.xlsx
+++ b/sf/Assesment_Parameters.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="460" windowWidth="25440" windowHeight="14480"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Related Works" sheetId="1" r:id="rId1"/>
+    <sheet name="Introduction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -144,6 +145,94 @@
   </si>
   <si>
     <t>Point 1-7 dituliskan di Tinjauan Pustaka pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+  </si>
+  <si>
+    <t>Penilaian Introduction atau BAB I</t>
+  </si>
+  <si>
+    <t>5 Maret 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>Form ini dilampirkan pada laporan</t>
+  </si>
+  <si>
+    <t>Narasi dalam paragraf ketiga yang berisi proposed solution</t>
+  </si>
+  <si>
+    <t>Sitasi karya dosen dan mahasiswa yang ada di portal if point 11</t>
+  </si>
+  <si>
+    <t>Setiap informasi ada sitasi</t>
+  </si>
+  <si>
+    <t>Setiap pernyataan ada sitasi</t>
+  </si>
+  <si>
+    <t>Latar belakang mengandung nyawa seseorang, atau kerugian negara atau kerugian dunia atau permasalahan dunia</t>
+  </si>
+  <si>
+    <t>Per karya nilai 5 tersitasi</t>
+  </si>
+  <si>
+    <t>maksimal 6 untuk tulisan dalam bahasa inggris, 1 untuk tulisan dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>Jumlah sitasi jurnal atau berita atau UU atau Buku referensi atau ensiklopedia atau buku dokumentasi pada paragraf  pertama yang memaparkan latar belakang</t>
+  </si>
+  <si>
+    <t>Jumlah sitasi jurnal atau berita atau UU atau Buku referensi atau ensiklopedia atau buku dokumentas pada paragraf  kedua yang memaparkan permasalahan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Introduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -261,6 +350,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,15 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -607,34 +696,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -759,12 +848,12 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -827,11 +916,11 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -847,11 +936,11 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,7 +969,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="10"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -911,4 +1000,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/sf/Assesment_Parameters.xlsx
+++ b/sf/Assesment_Parameters.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14440" activeTab="1"/>
+    <workbookView xWindow="27240" yWindow="460" windowWidth="25440" windowHeight="14280" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Related Works" sheetId="1" r:id="rId1"/>
     <sheet name="Introduction" sheetId="2" r:id="rId2"/>
+    <sheet name="Methods" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment" sheetId="4" r:id="rId4"/>
+    <sheet name="Results" sheetId="6" r:id="rId5"/>
+    <sheet name="Conclusion" sheetId="5" r:id="rId6"/>
+    <sheet name="Discussion" sheetId="7" r:id="rId7"/>
+    <sheet name="Abstract" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="147">
   <si>
     <t>No</t>
   </si>
@@ -233,6 +239,641 @@
       </rPr>
       <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
     </r>
+  </si>
+  <si>
+    <t>Per sitasi 2 untuk paraprase dalam bahasa inggris, 1 untuk paraprase dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <t>Penilaian Metode atau BAB III</t>
+  </si>
+  <si>
+    <t>12 Maret 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>definisi secara naratif, jelas, dan gamblang dari metode dengan sitasi dari sumber di related works</t>
+  </si>
+  <si>
+    <t>penjelasan rumus secara naratif, jelas, dan gamblang dari metode dengan sitasi dari sumber yang ada di related works</t>
+  </si>
+  <si>
+    <t>penjelasan naratif cara penerapan metode pada kasus penelitian dengan sitasi dari sumber yang ada di related works</t>
+  </si>
+  <si>
+    <t>10 untuk gambar dalam bahasa inggris, 1 untuk gambar dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>Menyertakan ilustrasi gambar buatan sendiri dengan resolusi yang tinggi dan bagus. Jika ada tulisan tidak boleh di bawah 9pt. Caption gambar singkat dan jelas</t>
+  </si>
+  <si>
+    <t>Terdapat rumus yang  menggunakan Mathematical expressions format latex dengan tag equation</t>
+  </si>
+  <si>
+    <t>Pada narasi paragraph penjelasan rumus menggunakan inline penanda rumus $rumus$</t>
+  </si>
+  <si>
+    <t>2 per inline $ dalam bahasa inggris, 1 dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maksimal 10 untuk satu tag equation </t>
+  </si>
+  <si>
+    <t>5 untuk paraprase dalam bahasa inggris, 1 untuk paraprase dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>algoritma/langkah-langkah secara naratif dalam paragraph atau bentuk algorithma, jelas dan gamblang dari metode dengan sitasi dari sumber yang ada di related works</t>
+  </si>
+  <si>
+    <t>19 Maret 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>Penilaian Eksperiment atau BAB IV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eksperiment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB IV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <t>penjelasan secara naratif, jelas, dan gamblang dari sumber data, jumlah data dan kejelasan jenis dan isi data</t>
+  </si>
+  <si>
+    <t>penjelasan secara naratif(Input-Proses-Output) bagaimana metode diterapkan dengan data nomor 1 dalam paragraph, jelas dan gamblang</t>
+  </si>
+  <si>
+    <t>Menyertakan ilustrasi gambar buatan sendiri atau foto alat eksperimen atau skrinsut aplikasi atau foto ujicoba dengan resolusi yang tinggi dan bagus. Jika ada tulisan tidak boleh di bawah 9pt. Caption gambar singkat dan jelas</t>
+  </si>
+  <si>
+    <t>Penjelasan secara naratif lokasi studi kasus yang menjadi eksperimen dikaitkan dengan background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jika sudah ada hasil eksperiment bonus 20 </t>
+  </si>
+  <si>
+    <t>20 untuk paraprase dalam bahasa inggris, 1 untuk paraprase dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>ekperimen dibantu dengan menggunakan bahasa pemrograman</t>
+  </si>
+  <si>
+    <t>bahasa pemrograman dibuat sendiri untuk pengerjaan eksperimen sesuai dengan metode bukan plagiasi dari tempat lain</t>
+  </si>
+  <si>
+    <t>maksimal 10</t>
+  </si>
+  <si>
+    <t>The research questions have been answered.</t>
+  </si>
+  <si>
+    <t>The main question or problem statement has been answered.</t>
+  </si>
+  <si>
+    <t>The hypotheses have been confirmed or refused.</t>
+  </si>
+  <si>
+    <t>The right verb tense has been used.</t>
+  </si>
+  <si>
+    <t>No issues are interpreted.</t>
+  </si>
+  <si>
+    <t>No new information has been given.</t>
+  </si>
+  <si>
+    <t>No examples are used.</t>
+  </si>
+  <si>
+    <t>No extraneous information is provided.</t>
+  </si>
+  <si>
+    <t>No passages from the results have been cut and pasted.</t>
+  </si>
+  <si>
+    <t>10 untuk kalimat dalam bahasa inggris, 1 untuk kalimat dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>Mereferensikan gambar atau tabel dari result</t>
+  </si>
+  <si>
+    <t>Penilaian Conclusion atau BAB VI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Conclusion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB VI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <t>Penilaian Results atau BAB V</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <t>The results section always begins with text, reporting the key results and referring to your figures and tables as you proceed</t>
+  </si>
+  <si>
+    <t>Present the results of your experiment(s) in a sequence that will logically support (or provide evidence against) the hypothesis, or answer the question, stated in the Introduction. </t>
+  </si>
+  <si>
+    <t>The body of the Results section is a text-based presentation of the key findings which includes references to each of the Tables and Figures. The text should guide the reader through your results stressing the key results which provide the answers to the question(s) investigated. A major function of the text is to provide clarifying information. You must refer to each Table and/or Figure individually and in sequence (using latex ref), and clearly indicate for the reader the key results that each conveys. Key results depend on your questions, they might include obvious trends, important differences, similarities, correlations, maximums, minimums, etc.</t>
+  </si>
+  <si>
+    <t>Summaries of the statistical analyses may appear either in the text (usually parenthetically) or in the relevant Tables or Figures (in the legend or as footnotes to the Table or Figure)</t>
+  </si>
+  <si>
+    <t>Always enter the appropriate units when reporting data or summary statistics.for an individual value you would write, "the mean length was 10 m", or, "the maximum time was 140 min."</t>
+  </si>
+  <si>
+    <t>Use and over-use of the word "significant": Your results will read much more cleanly if you avoid overuse of the word siginifcant in any of its forms.</t>
+  </si>
+  <si>
+    <t>Do not reiterate each value from a Figure or Table - only the key result or trends that each conveys. Do not present the same data in both a Table and Figure - this is considered redundant and a waste of space and energy. Decide which format best shows the result and go with it. Do not report raw data values when they can be summarized as means, percents, etc.</t>
+  </si>
+  <si>
+    <t>Prove that your manuscript has a significant value not trivial</t>
+  </si>
+  <si>
+    <t>present comparison between porformance of your approach with related works(With CItation)</t>
+  </si>
+  <si>
+    <t>26 Maret 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>5 jika sudah benar seluruh tulisan di jurnal</t>
+  </si>
+  <si>
+    <t>Cek semua tulisan termasuk tulisan sebelumnya : Satu paragraph minimal 3 kalimat, setiap gambar/tabel harus direferensikan di kalimat.tidak boleh melakukan referensi relatif</t>
+  </si>
+  <si>
+    <t>2 april 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>9 april 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>6 untuk kalimat dalam bahasa inggris, 1 untuk kalimat dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>maksimal 13 untuk tulisan dalam bahasa inggris, 1 untuk tulisan dalam bahasa indonesia</t>
+  </si>
+  <si>
+    <t>16 april 2018 pukul 23.59</t>
+  </si>
+  <si>
+    <t>The validity of the research is demonstrated.</t>
+  </si>
+  <si>
+    <t>New insights are explained.</t>
+  </si>
+  <si>
+    <t>The limitations of the research are discussed.</t>
+  </si>
+  <si>
+    <t>It is indicated whether expectations were justified.</t>
+  </si>
+  <si>
+    <t>Possible causes and consequences of the results are discussed.</t>
+  </si>
+  <si>
+    <t>Suggestions for possible follow-up research are made.</t>
+  </si>
+  <si>
+    <t>Own interpretations have been included in the discussion.</t>
+  </si>
+  <si>
+    <t>There are no suggestions for follow-up research that are too vague.</t>
+  </si>
+  <si>
+    <t>Penilaian Discussion atau BAB VII</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Discussion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BAB VII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <t>Penilaian Abstract</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Poin 1-7 dituliskan dalam </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ke dalam jurnal dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Point 1-7 dituliskan di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pada laporan dalam format latex sesuai dengan standar penulisan latex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cek tulisan seluruhnya di jurnal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: setiap gambar atau tabel pastikan di referensikan dalam kalimat di dalam paragraf yang utuh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cek tulisan seluruhnya di jurnal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : pastikan tidak ada kata ganti orang pertama kedua, ketiga. Contoh : the researcher, the author, I, they, you, we, us etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cek tulisan seluruhnya di jurnal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : pastikan satu paragraf terdiri minimal 3 kalimat.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cek tulisan seluruhnya di jurnal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: pastikan tidak ada penunjukan relatif. Contoh : tabel di bawah ini, gambar di atas, gambar di bawah ini.</t>
+    </r>
+  </si>
+  <si>
+    <t>terdiri dari 150-200 kata tanpa ada sitasi</t>
+  </si>
+  <si>
+    <t>harus dimunculkan persoalan utama dan pentingnya melakukan penelitian ini, serta solusi yang diusulkan</t>
+  </si>
+  <si>
+    <t>isi tertuang dengan kalimat yangjelas</t>
+  </si>
+  <si>
+    <t>kata kunci atau keyword ditentukan denagn nama metode yang digunakan dan sub sub bidang penelitian yang dilakukan</t>
+  </si>
+  <si>
+    <t>kata kunci minimal 5, berkaitan dengan metode dan sub sub sub bidang penelitian yang dilakukan</t>
+  </si>
+  <si>
+    <t>Berisi tujuan yang singkat padas jelas</t>
+  </si>
+  <si>
+    <t>berisi metode yang diusulkan dan digunakan</t>
+  </si>
+  <si>
+    <t>jelaskan secara singkat dan jelas hasil yang didapatkan</t>
+  </si>
+  <si>
+    <t>jelaskan secara singkat dan jelas kesimpulan dari penelitian</t>
+  </si>
+  <si>
+    <t>jelaskan secara singkat dan jelas saran untuk pengembangan penelitian selanjutnya</t>
+  </si>
+  <si>
+    <t>berisi latar belakang yang penting dan jelas</t>
+  </si>
+  <si>
+    <t>alur mudah dimengerti dan dicerna serta menggunakan kalimat yang teratur dan terstruktur.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +1326,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1647,334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1066,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1078,10 +2046,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1090,22 +2058,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1114,34 +2082,34 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -1150,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -1162,7 +2130,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -1305,7 +2273,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1327,4 +2295,1831 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>